--- a/results/pvalue_OFFSIDES_all_target_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_target_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47.437</t>
+          <t>44.789</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>46.753</t>
+          <t>47.553</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>45.924</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45.063</t>
+          <t>46.513</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.683</t>
+          <t>8.683</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
